--- a/Library_API/Upload/updated_importfile.xlsx
+++ b/Library_API/Upload/updated_importfile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF81E76E-FE7C-47AD-9C80-9455035D156A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB3C84CC-52AB-48DD-B58E-2D8E5FA2A36A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="54">
   <si>
     <t>No.</t>
   </si>
@@ -115,18 +115,6 @@
     <t>alice.in.neverland04@gmail.com</t>
   </si>
   <si>
-    <t>user2@example.com</t>
-  </si>
-  <si>
-    <t>user3@example.com</t>
-  </si>
-  <si>
-    <t>user4@example.com</t>
-  </si>
-  <si>
-    <t>user5@example.com</t>
-  </si>
-  <si>
     <t>Cần Thơ</t>
   </si>
   <si>
@@ -160,25 +148,40 @@
     <t>B2001238</t>
   </si>
   <si>
-    <t>Tran Van A</t>
-  </si>
-  <si>
-    <t>Tran Van C</t>
-  </si>
-  <si>
-    <t>Tran Van D</t>
-  </si>
-  <si>
-    <t>Tran Van F</t>
-  </si>
-  <si>
-    <t>Tran Van E</t>
-  </si>
-  <si>
     <t>hinhthe.png</t>
   </si>
   <si>
     <t xml:space="preserve">4 năm </t>
+  </si>
+  <si>
+    <t>B211111</t>
+  </si>
+  <si>
+    <t>B222222</t>
+  </si>
+  <si>
+    <t>B200000</t>
+  </si>
+  <si>
+    <t>B233333</t>
+  </si>
+  <si>
+    <t>B244444</t>
+  </si>
+  <si>
+    <t>Truong Van A</t>
+  </si>
+  <si>
+    <t>Truong Van C</t>
+  </si>
+  <si>
+    <t>Truong Van D</t>
+  </si>
+  <si>
+    <t>Truong Van E</t>
+  </si>
+  <si>
+    <t>Truong Van F</t>
   </si>
 </sst>
 </file>
@@ -557,8 +560,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N6" activeCellId="1" sqref="N5 N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -631,7 +634,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C2" s="2">
         <v>89302011953</v>
@@ -640,13 +643,13 @@
         <v>868463149</v>
       </c>
       <c r="E2" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H2" t="s">
         <v>24</v>
@@ -658,13 +661,13 @@
         <v>30</v>
       </c>
       <c r="K2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="L2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="M2" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="N2" t="b">
         <v>1</v>
@@ -681,7 +684,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C3" t="s">
         <v>16</v>
@@ -690,13 +693,13 @@
         <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G3" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="H3" t="s">
         <v>24</v>
@@ -705,19 +708,19 @@
         <v>28</v>
       </c>
       <c r="J3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="L3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="M3" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="N3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O3">
         <v>2</v>
@@ -731,7 +734,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C4" t="s">
         <v>17</v>
@@ -740,13 +743,13 @@
         <v>21</v>
       </c>
       <c r="E4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" t="s">
         <v>51</v>
-      </c>
-      <c r="F4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G4" t="s">
-        <v>48</v>
       </c>
       <c r="H4" t="s">
         <v>25</v>
@@ -755,19 +758,19 @@
         <v>29</v>
       </c>
       <c r="J4" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" t="s">
         <v>32</v>
       </c>
-      <c r="K4" t="s">
-        <v>36</v>
-      </c>
       <c r="L4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="M4" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="N4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O4">
         <v>2</v>
@@ -781,7 +784,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C5" t="s">
         <v>18</v>
@@ -790,13 +793,13 @@
         <v>22</v>
       </c>
       <c r="E5" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F5" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H5" t="s">
         <v>26</v>
@@ -805,16 +808,16 @@
         <v>28</v>
       </c>
       <c r="J5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K5" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="L5" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="M5" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="N5" t="b">
         <v>1</v>
@@ -831,7 +834,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C6" t="s">
         <v>19</v>
@@ -840,13 +843,13 @@
         <v>23</v>
       </c>
       <c r="E6" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F6" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G6" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="H6" t="s">
         <v>27</v>
@@ -855,19 +858,19 @@
         <v>29</v>
       </c>
       <c r="J6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="K6" t="s">
+        <v>32</v>
+      </c>
+      <c r="L6" t="s">
         <v>36</v>
       </c>
-      <c r="L6" t="s">
-        <v>40</v>
-      </c>
       <c r="M6" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="N6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O6">
         <v>2</v>
